--- a/Excel/Templates/Excel templates.xlsx
+++ b/Excel/Templates/Excel templates.xlsx
@@ -8,36 +8,63 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hudac-my.sharepoint.com/personal/j_li_hud_ac_uk/Documents/Documents/github/Solution-for-Powerbi-Excel-Python-Sql/Excel/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104840C91B456C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C866DD-5EED-46BD-A879-58F5B427D959}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104840C91B456C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C795C04-2027-4B22-A461-C0F3CE5EC6EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>benchmark</t>
   </si>
   <si>
     <t>seris</t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,14 +90,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,7 +513,594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Increase rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seris</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9307-4C9F-9E0D-0EB3CA858C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4534A968-038D-42FF-ABF3-16133A53CC2F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9307-4C9F-9E0D-0EB3CA858C0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8FB3B370-C653-49CE-870E-ABBE63A19579}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9307-4C9F-9E0D-0EB3CA858C0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5689A9B3-1BC6-4D0F-A254-0C0F0CBAB48B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9307-4C9F-9E0D-0EB3CA858C0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>raw!$C$2:$C$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>raw!$D$2:$D$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-9</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>raw!$E$2:$E$4</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>33.3%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.7%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-30.0%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9307-4C9F-9E0D-0EB3CA858C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="651022239"/>
+        <c:axId val="665590431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="651022239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665590431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665590431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651022239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1028,20 +1645,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>290511</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1063,6 +2183,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24DA6F5-644A-38CA-C43B-0D63A227D71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1334,44 +2490,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8511B190-B9FB-445C-9EA8-CDBEA240884B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
       <c r="B2">
         <v>28</v>
       </c>
+      <c r="C2">
+        <f>IF(B2-A2&gt;0,A2-B2,"")</f>
+        <v>-7</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(B2-A2&lt;0,B2-A2,"")</f>
+        <v/>
+      </c>
+      <c r="E2" s="1">
+        <f>(B2-A2)/A2</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
       <c r="B3">
         <v>34</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="0">IF(B3-A3&gt;0,A3-B3,"")</f>
+        <v>-3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="1">IF(B3-A3&lt;0,B3-A3,"")</f>
+        <v/>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E4" si="2">(B3-A3)/A3</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
         <v>21</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
